--- a/data/trans_orig/P56S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F862D27F-F73A-4765-BC32-7D6D51C9D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BF6BAF-C872-4C70-BEF1-201077F68E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{890AD25B-AA97-42F4-83D8-EBB7B9A75A20}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53BDAC10-CE43-48DC-AFC0-0A2A0F0D7BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A7618C-A3EA-4860-BC96-362D870F481F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBBBAA9-A611-4F57-B9CB-3C241F592209}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3057,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C82267-8A3D-4446-BEDE-B74837FD5830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E141467D-AC02-4EEC-BF23-21CB59DE0393}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5148,7 +5148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298E2A0C-CC71-4682-B115-9EFE4D8F6CEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB2AE96-8806-49E2-ACB1-DEB4FF2774EE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BF6BAF-C872-4C70-BEF1-201077F68E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02DB9A49-5108-4467-A8C6-055487F612CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53BDAC10-CE43-48DC-AFC0-0A2A0F0D7BEA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E55BD9A7-201B-412F-ADD7-A7C054086BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda pública: Voluntariado</t>
@@ -91,10 +91,10 @@
     <t>Un familiar que no vive con usted</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -115,7 +115,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -142,7 +142,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,51%)</t>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBBBAA9-A611-4F57-B9CB-3C241F592209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF8DA5D-E9AC-4A5A-B3BC-29142118C7C3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3057,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E141467D-AC02-4EEC-BF23-21CB59DE0393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5902C2CE-7073-441A-B998-ADA54F9044EB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5148,7 +5148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB2AE96-8806-49E2-ACB1-DEB4FF2774EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E538B5-9166-4821-8F25-96C34E7CA69E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
